--- a/biology/Botanique/Begonia_cucullata/Begonia_cucullata.xlsx
+++ b/biology/Botanique/Begonia_cucullata/Begonia_cucullata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Begonia cucullata est une espèce de plantes de la famille des Begoniaceae. Ce bégonia est originaire d'Amérique du Sud. L'espèce fait partie de la section Ephemera. Elle a été décrite en 1805 par Carl Ludwig Willdenow (1765-1812). L'épithète spécifique cucullata signifie « ressemblant à un capuchon »[3] ou « encapuchonné »[4].
-Cette espèce est à l'origine du groupe de cultivars Begonia ×semperflorens-cultorum . Les bégonias semperflorens étant des hybrides issus au départ de deux espèces brésiliennes qui font partie de la section Begonia : Begonia semperflorens Link &amp; Otto (considéré plus tard comme un synonyme de Begonia cucullata Willd.)[5] et de Begonia schmidtiana Regel. (synonyme de Begonia subvillosa Klotzsch)[6].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Begonia cucullata est une espèce de plantes de la famille des Begoniaceae. Ce bégonia est originaire d'Amérique du Sud. L'espèce fait partie de la section Ephemera. Elle a été décrite en 1805 par Carl Ludwig Willdenow (1765-1812). L'épithète spécifique cucullata signifie « ressemblant à un capuchon » ou « encapuchonné ».
+Cette espèce est à l'origine du groupe de cultivars Begonia ×semperflorens-cultorum . Les bégonias semperflorens étant des hybrides issus au départ de deux espèces brésiliennes qui font partie de la section Begonia : Begonia semperflorens Link &amp; Otto (considéré plus tard comme un synonyme de Begonia cucullata Willd.) et de Begonia schmidtiana Regel. (synonyme de Begonia subvillosa Klotzsch).
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Begonia cucullata var. hookeri, planche botanique de 1829.
@@ -547,9 +561,11 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est originaire des pays suivants : Argentine ; Brésil ; Paraguay ; Uruguay[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est originaire des pays suivants : Argentine ; Brésil ; Paraguay ; Uruguay.
 </t>
         </is>
       </c>
@@ -578,16 +594,18 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>La banque de données du jardin botanique royal d'Édimbourg (RBGE), spécialisé dans les bégonias, n'admet que deux variétés[8] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La banque de données du jardin botanique royal d'Édimbourg (RBGE), spécialisé dans les bégonias, n'admet que deux variétés :
 Begonia cucullata var. cucullata
 Begonia cucullata var. spatulata (Lodd.) Golding
-Liste des variétés selon GBIF       (19 février 2022)[9] :
+Liste des variétés selon GBIF       (19 février 2022) :
 Begonia cucullata var. arenosicola (C.DC.) L.B.Sm. &amp; B.G.Schub.
 Begonia cucullata var. cucullata
 Begonia cucullata var. spatulata (Lodd.) Golding
-Selon Tropicos                                           (6 février 2017)[10] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (6 février 2017) (Attention liste brute contenant possiblement des synonymes) :
 Begonia cucullata var. arenosicola (C. DC.) L.B. Sm. &amp; B.G. Schub.
 Begonia cucullata var. cucullata
 Begonia cucullata var. hookeri L.B. Sm. &amp; B.G. Schub.
@@ -621,10 +639,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom scientifique complet (avec auteur) de ce taxon est Begonia cucullata Willd.[9].
-Begonia cucullata a pour synonymes[9] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom scientifique complet (avec auteur) de ce taxon est Begonia cucullata Willd..
+Begonia cucullata a pour synonymes :
 Begonia cucullata var. hookeri (A.DC.) L.B.Sm. &amp; Schub.
 Begonia cucullifolia Hassk.
 Begonia dispar Rchb.
@@ -636,7 +656,7 @@
 Begonia semperflorens var. sellowii (Klotzsch) C.DC.
 Begonia setaria Hort.Angl.
 Begonia setaria Hort.Angl. ex A.DC.
-En 2018, l'espèce a été assignée à une nouvelle section Ephemera, au cycle annuel, au lieu de la section Begonia[11].
+En 2018, l'espèce a été assignée à une nouvelle section Ephemera, au cycle annuel, au lieu de la section Begonia.
 </t>
         </is>
       </c>
